--- a/LPP.WA.xlsx
+++ b/LPP.WA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD2110A-194B-40F6-852E-6CF975F95219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9523434E-1306-480F-951A-2CE364B0DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{F74C0010-9603-4817-B774-EB89375B349A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F74C0010-9603-4817-B774-EB89375B349A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>LPP S.A</t>
   </si>
@@ -242,6 +242,18 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
@@ -250,13 +262,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -320,25 +338,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -677,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464D9178-5323-4DE4-ABD0-DD8AC1EB1A7B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -700,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>16460</v>
+        <v>17935</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -708,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>1.85589</v>
+        <v>1.8551899999999999</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+      <c r="J3" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -723,7 +745,7 @@
       </c>
       <c r="I4" s="5">
         <f>+I2*I3</f>
-        <v>30547.949400000001</v>
+        <v>33272.832649999997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,11 +756,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="5">
-        <f>736+845</f>
-        <v>1581</v>
+        <f>651+992</f>
+        <v>1643</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+      <c r="J5" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -746,11 +768,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="5">
-        <f>571+476</f>
-        <v>1047</v>
+        <f>170+1872</f>
+        <v>2042</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+      <c r="J6" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -759,7 +781,7 @@
       </c>
       <c r="I7" s="5">
         <f>+I4-I5+I6</f>
-        <v>30013.949400000001</v>
+        <v>33671.832649999997</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -793,10 +815,10 @@
   <dimension ref="A1:EZ268"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,6 +858,18 @@
       <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:156" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -851,7 +885,9 @@
         <v>1230</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>1611</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1012,7 +1048,9 @@
         <v>365</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>354</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1173,7 +1211,9 @@
         <v>374</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>384</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1334,7 +1374,9 @@
         <v>371</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>381</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1495,7 +1537,9 @@
         <v>234</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>229</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1656,8 +1700,14 @@
         <f>+SUM(I3:I7)</f>
         <v>2574</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="9">
+        <f t="shared" ref="J8:K8" si="0">+SUM(J3:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="0"/>
+        <v>2959</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1970,13 +2020,17 @@
         <v>1880</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>2103</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5">
         <v>2695</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>2751</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2133,13 +2187,17 @@
         <v>1275</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>1138</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
         <v>1406</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>1388</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2296,13 +2354,17 @@
         <v>310</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>254</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
         <v>303</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>237</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2459,13 +2521,17 @@
         <v>288</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>249</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
         <v>315</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>254</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2622,13 +2688,17 @@
         <v>320</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>316</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
         <v>311</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>299</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2785,13 +2855,17 @@
         <v>69</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>15</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
         <v>20</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>29</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2948,13 +3022,17 @@
         <v>208</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>232</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
         <v>162</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3111,13 +3189,17 @@
         <v>1027</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>1157</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
         <v>1394</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <v>1448</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3274,13 +3356,17 @@
         <v>1866</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>1891</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <v>2208</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5">
+        <v>2224</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3437,13 +3523,17 @@
         <v>2276</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5">
+        <v>2184</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5">
         <v>2843</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5">
+        <v>2729</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3600,13 +3690,17 @@
         <v>208</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>232</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
         <v>162</v>
       </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3763,13 +3857,17 @@
         <v>3685</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9">
+        <v>4306</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9">
         <v>4349</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="9">
+        <v>4954</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3926,13 +4024,17 @@
         <v>2090</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>2063</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5">
         <v>2529</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>2279</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -4084,27 +4186,27 @@
         <v>41</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ref="C23:H23" si="0">+C21-C22</f>
+        <f t="shared" ref="C23:H23" si="1">+C21-C22</f>
         <v>0</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1595</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2243</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="5">
@@ -4112,10 +4214,13 @@
         <v>1820</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J23" si="1">+J21-J22</f>
+        <f t="shared" ref="J23:K23" si="2">+J21-J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <f t="shared" si="2"/>
+        <v>2675</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -4272,13 +4377,17 @@
         <v>797</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>1523</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
         <v>1102</v>
       </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>1879</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -4435,13 +4544,17 @@
         <v>170</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5">
+        <v>300</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
         <v>211</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5">
+        <v>300</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -4598,13 +4711,17 @@
         <v>6</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>22</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5">
         <v>-3</v>
       </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>15</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -4761,13 +4878,17 @@
         <v>17</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5">
+        <v>31</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5">
         <v>13</v>
       </c>
       <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>47</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -4919,27 +5040,27 @@
         <v>46</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:H28" si="2">+C23-SUM(C24:C25)+C26-C27</f>
+        <f t="shared" ref="C28:H28" si="3">+C23-SUM(C24:C25)+C26-C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>411</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="5">
@@ -4947,10 +5068,13 @@
         <v>491</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" ref="J28" si="3">+J23-SUM(J24:J25)+J26-J27</f>
+        <f t="shared" ref="J28:K28" si="4">+J23-SUM(J24:J25)+J26-J27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <f t="shared" si="4"/>
+        <v>464</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -5107,13 +5231,17 @@
         <v>51</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5">
+        <v>33</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5">
         <v>46</v>
       </c>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>57</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -5270,13 +5398,17 @@
         <v>66</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5">
+        <v>62</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>82</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -5428,27 +5560,27 @@
         <v>49</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" ref="C31:H31" si="4">+C28+C29-C30</f>
+        <f t="shared" ref="C31:H31" si="5">+C28+C29-C30</f>
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>602</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>382</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31" s="5">
@@ -5456,10 +5588,13 @@
         <v>536</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31" si="5">+J28+J29-J30</f>
+        <f t="shared" ref="J31:K31" si="6">+J28+J29-J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <f t="shared" si="6"/>
+        <v>439</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -5616,13 +5751,17 @@
         <v>112</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5">
+        <v>105</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5">
         <v>104</v>
       </c>
       <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>107</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -5774,27 +5913,27 @@
         <v>51</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" ref="C33:H33" si="6">+C31-C32</f>
+        <f t="shared" ref="C33:H33" si="7">+C31-C32</f>
         <v>0</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>277</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I33" s="5">
@@ -5802,10 +5941,13 @@
         <v>432</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33" si="7">+J31-J32</f>
+        <f t="shared" ref="J33:K33" si="8">+J31-J32</f>
         <v>0</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <f t="shared" si="8"/>
+        <v>332</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -6113,27 +6255,27 @@
         <v>52</v>
       </c>
       <c r="C35" s="3" t="e">
-        <f t="shared" ref="C35:H35" si="8">+C33/C36</f>
+        <f t="shared" ref="C35:H35" si="9">+C33/C36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>264.17344442275942</v>
       </c>
       <c r="F35" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="G35" s="3">
+        <f t="shared" si="9"/>
+        <v>149.30199967660218</v>
       </c>
       <c r="H35" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="3">
@@ -6141,10 +6283,13 @@
         <v>232.84643992885248</v>
       </c>
       <c r="J35" s="3" t="e">
-        <f t="shared" ref="J35" si="9">+J33/J36</f>
+        <f t="shared" ref="J35:K35" si="10">+J33/J36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="3">
+        <f t="shared" si="10"/>
+        <v>178.95741137026397</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -6301,13 +6446,17 @@
         <v>1.8548420000000001</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5">
+        <v>1.8552999999999999</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5">
         <v>1.8552999999999999</v>
       </c>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5">
+        <v>1.8551899999999999</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -6619,11 +6768,11 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="10" t="e">
-        <f t="shared" ref="G38:H38" si="10">+G8/C8-1</f>
+        <f t="shared" ref="G38:H38" si="11">+G8/C8-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="10" t="e">
@@ -6634,10 +6783,22 @@
         <f>+J8/F8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="K38" s="10" t="e">
+        <f t="shared" ref="K38:N38" si="12">+K8/G8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="N38" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -6790,11 +6951,11 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="10" t="e">
-        <f t="shared" ref="G39:H45" si="11">+G10/C10-1</f>
+        <f t="shared" ref="G39:H45" si="13">+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="10">
@@ -6805,10 +6966,22 @@
         <f>+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="K39" s="10">
+        <f t="shared" ref="K39:N45" si="14">+K10/G10-1</f>
+        <v>0.30813124108416545</v>
+      </c>
+      <c r="L39" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N39" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -6961,25 +7134,37 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" ref="I40:J45" si="12">+I11/E11-1</f>
+        <f t="shared" ref="I40:J45" si="15">+I11/E11-1</f>
         <v>0.10274509803921572</v>
       </c>
       <c r="J40" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="K40" s="10">
+        <f t="shared" si="14"/>
+        <v>0.2196836555360282</v>
+      </c>
+      <c r="L40" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N40" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
@@ -7132,25 +7317,37 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.2580645161290325E-2</v>
       </c>
       <c r="J41" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="K41" s="10">
+        <f t="shared" si="14"/>
+        <v>-6.6929133858267709E-2</v>
+      </c>
+      <c r="L41" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N41" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
@@ -7303,25 +7500,37 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9.375E-2</v>
       </c>
       <c r="J42" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="K42" s="10">
+        <f t="shared" si="14"/>
+        <v>2.008032128514059E-2</v>
+      </c>
+      <c r="L42" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N42" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
@@ -7474,25 +7683,37 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-2.8124999999999956E-2</v>
       </c>
       <c r="J43" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="K43" s="10">
+        <f t="shared" si="14"/>
+        <v>-5.3797468354430333E-2</v>
+      </c>
+      <c r="L43" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N43" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -7645,25 +7866,37 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H44" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.71014492753623193</v>
       </c>
       <c r="J44" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="K44" s="10">
+        <f t="shared" si="14"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="L44" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N44" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -7816,25 +8049,37 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H45" s="10" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.22115384615384615</v>
       </c>
       <c r="J45" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="K45" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="L45" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="N45" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
@@ -7987,11 +8232,11 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="10" t="e">
-        <f t="shared" ref="G46:H48" si="13">+G17/C17-1</f>
+        <f t="shared" ref="G46:H48" si="16">+G17/C17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="10">
@@ -8002,10 +8247,22 @@
         <f>+J17/F17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46:N48" si="17">+K17/G17-1</f>
+        <v>0.25151253241140892</v>
+      </c>
+      <c r="L46" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N46" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
@@ -8158,25 +8415,37 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H47" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" ref="I47:J48" si="14">+I18/E18-1</f>
+        <f t="shared" ref="I47:J48" si="18">+I18/E18-1</f>
         <v>0.18327974276527326</v>
       </c>
       <c r="J47" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="K47" s="10">
+        <f t="shared" si="17"/>
+        <v>0.17609730301427806</v>
+      </c>
+      <c r="L47" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N47" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
@@ -8329,25 +8598,37 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H48" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0.24912126537785584</v>
       </c>
       <c r="J48" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="K48" s="10">
+        <f t="shared" si="17"/>
+        <v>0.24954212454212454</v>
+      </c>
+      <c r="L48" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="N48" s="10" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -8491,203 +8772,215 @@
       <c r="EY48" s="5"/>
       <c r="EZ48" s="5"/>
     </row>
-    <row r="49" spans="2:156" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="2:156" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="10" t="e">
-        <f t="shared" ref="G49:H49" si="15">+G21/C21-1</f>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="12" t="e">
+        <f t="shared" ref="G49:H49" si="19">+G21/C21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="10" t="e">
-        <f t="shared" si="15"/>
+      <c r="H49" s="12" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="12">
         <f>+I21/E21-1</f>
         <v>0.18018995929443693</v>
       </c>
-      <c r="J49" s="10" t="e">
-        <f t="shared" ref="J49" si="16">+J21/F21-1</f>
+      <c r="J49" s="12" t="e">
+        <f t="shared" ref="J49" si="20">+J21/F21-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-      <c r="BK49" s="5"/>
-      <c r="BL49" s="5"/>
-      <c r="BM49" s="5"/>
-      <c r="BN49" s="5"/>
-      <c r="BO49" s="5"/>
-      <c r="BP49" s="5"/>
-      <c r="BQ49" s="5"/>
-      <c r="BR49" s="5"/>
-      <c r="BS49" s="5"/>
-      <c r="BT49" s="5"/>
-      <c r="BU49" s="5"/>
-      <c r="BV49" s="5"/>
-      <c r="BW49" s="5"/>
-      <c r="BX49" s="5"/>
-      <c r="BY49" s="5"/>
-      <c r="BZ49" s="5"/>
-      <c r="CA49" s="5"/>
-      <c r="CB49" s="5"/>
-      <c r="CC49" s="5"/>
-      <c r="CD49" s="5"/>
-      <c r="CE49" s="5"/>
-      <c r="CF49" s="5"/>
-      <c r="CG49" s="5"/>
-      <c r="CH49" s="5"/>
-      <c r="CI49" s="5"/>
-      <c r="CJ49" s="5"/>
-      <c r="CK49" s="5"/>
-      <c r="CL49" s="5"/>
-      <c r="CM49" s="5"/>
-      <c r="CN49" s="5"/>
-      <c r="CO49" s="5"/>
-      <c r="CP49" s="5"/>
-      <c r="CQ49" s="5"/>
-      <c r="CR49" s="5"/>
-      <c r="CS49" s="5"/>
-      <c r="CT49" s="5"/>
-      <c r="CU49" s="5"/>
-      <c r="CV49" s="5"/>
-      <c r="CW49" s="5"/>
-      <c r="CX49" s="5"/>
-      <c r="CY49" s="5"/>
-      <c r="CZ49" s="5"/>
-      <c r="DA49" s="5"/>
-      <c r="DB49" s="5"/>
-      <c r="DC49" s="5"/>
-      <c r="DD49" s="5"/>
-      <c r="DE49" s="5"/>
-      <c r="DF49" s="5"/>
-      <c r="DG49" s="5"/>
-      <c r="DH49" s="5"/>
-      <c r="DI49" s="5"/>
-      <c r="DJ49" s="5"/>
-      <c r="DK49" s="5"/>
-      <c r="DL49" s="5"/>
-      <c r="DM49" s="5"/>
-      <c r="DN49" s="5"/>
-      <c r="DO49" s="5"/>
-      <c r="DP49" s="5"/>
-      <c r="DQ49" s="5"/>
-      <c r="DR49" s="5"/>
-      <c r="DS49" s="5"/>
-      <c r="DT49" s="5"/>
-      <c r="DU49" s="5"/>
-      <c r="DV49" s="5"/>
-      <c r="DW49" s="5"/>
-      <c r="DX49" s="5"/>
-      <c r="DY49" s="5"/>
-      <c r="DZ49" s="5"/>
-      <c r="EA49" s="5"/>
-      <c r="EB49" s="5"/>
-      <c r="EC49" s="5"/>
-      <c r="ED49" s="5"/>
-      <c r="EE49" s="5"/>
-      <c r="EF49" s="5"/>
-      <c r="EG49" s="5"/>
-      <c r="EH49" s="5"/>
-      <c r="EI49" s="5"/>
-      <c r="EJ49" s="5"/>
-      <c r="EK49" s="5"/>
-      <c r="EL49" s="5"/>
-      <c r="EM49" s="5"/>
-      <c r="EN49" s="5"/>
-      <c r="EO49" s="5"/>
-      <c r="EP49" s="5"/>
-      <c r="EQ49" s="5"/>
-      <c r="ER49" s="5"/>
-      <c r="ES49" s="5"/>
-      <c r="ET49" s="5"/>
-      <c r="EU49" s="5"/>
-      <c r="EV49" s="5"/>
-      <c r="EW49" s="5"/>
-      <c r="EX49" s="5"/>
-      <c r="EY49" s="5"/>
-      <c r="EZ49" s="5"/>
+      <c r="K49" s="12">
+        <f t="shared" ref="K49" si="21">+K21/G21-1</f>
+        <v>0.15048769159312592</v>
+      </c>
+      <c r="L49" s="12" t="e">
+        <f t="shared" ref="L49" si="22">+L21/H21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="12">
+        <f t="shared" ref="M49" si="23">+M21/I21-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N49" s="12" t="e">
+        <f t="shared" ref="N49" si="24">+N21/J21-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+      <c r="AU49" s="9"/>
+      <c r="AV49" s="9"/>
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="9"/>
+      <c r="AY49" s="9"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="9"/>
+      <c r="BC49" s="9"/>
+      <c r="BD49" s="9"/>
+      <c r="BE49" s="9"/>
+      <c r="BF49" s="9"/>
+      <c r="BG49" s="9"/>
+      <c r="BH49" s="9"/>
+      <c r="BI49" s="9"/>
+      <c r="BJ49" s="9"/>
+      <c r="BK49" s="9"/>
+      <c r="BL49" s="9"/>
+      <c r="BM49" s="9"/>
+      <c r="BN49" s="9"/>
+      <c r="BO49" s="9"/>
+      <c r="BP49" s="9"/>
+      <c r="BQ49" s="9"/>
+      <c r="BR49" s="9"/>
+      <c r="BS49" s="9"/>
+      <c r="BT49" s="9"/>
+      <c r="BU49" s="9"/>
+      <c r="BV49" s="9"/>
+      <c r="BW49" s="9"/>
+      <c r="BX49" s="9"/>
+      <c r="BY49" s="9"/>
+      <c r="BZ49" s="9"/>
+      <c r="CA49" s="9"/>
+      <c r="CB49" s="9"/>
+      <c r="CC49" s="9"/>
+      <c r="CD49" s="9"/>
+      <c r="CE49" s="9"/>
+      <c r="CF49" s="9"/>
+      <c r="CG49" s="9"/>
+      <c r="CH49" s="9"/>
+      <c r="CI49" s="9"/>
+      <c r="CJ49" s="9"/>
+      <c r="CK49" s="9"/>
+      <c r="CL49" s="9"/>
+      <c r="CM49" s="9"/>
+      <c r="CN49" s="9"/>
+      <c r="CO49" s="9"/>
+      <c r="CP49" s="9"/>
+      <c r="CQ49" s="9"/>
+      <c r="CR49" s="9"/>
+      <c r="CS49" s="9"/>
+      <c r="CT49" s="9"/>
+      <c r="CU49" s="9"/>
+      <c r="CV49" s="9"/>
+      <c r="CW49" s="9"/>
+      <c r="CX49" s="9"/>
+      <c r="CY49" s="9"/>
+      <c r="CZ49" s="9"/>
+      <c r="DA49" s="9"/>
+      <c r="DB49" s="9"/>
+      <c r="DC49" s="9"/>
+      <c r="DD49" s="9"/>
+      <c r="DE49" s="9"/>
+      <c r="DF49" s="9"/>
+      <c r="DG49" s="9"/>
+      <c r="DH49" s="9"/>
+      <c r="DI49" s="9"/>
+      <c r="DJ49" s="9"/>
+      <c r="DK49" s="9"/>
+      <c r="DL49" s="9"/>
+      <c r="DM49" s="9"/>
+      <c r="DN49" s="9"/>
+      <c r="DO49" s="9"/>
+      <c r="DP49" s="9"/>
+      <c r="DQ49" s="9"/>
+      <c r="DR49" s="9"/>
+      <c r="DS49" s="9"/>
+      <c r="DT49" s="9"/>
+      <c r="DU49" s="9"/>
+      <c r="DV49" s="9"/>
+      <c r="DW49" s="9"/>
+      <c r="DX49" s="9"/>
+      <c r="DY49" s="9"/>
+      <c r="DZ49" s="9"/>
+      <c r="EA49" s="9"/>
+      <c r="EB49" s="9"/>
+      <c r="EC49" s="9"/>
+      <c r="ED49" s="9"/>
+      <c r="EE49" s="9"/>
+      <c r="EF49" s="9"/>
+      <c r="EG49" s="9"/>
+      <c r="EH49" s="9"/>
+      <c r="EI49" s="9"/>
+      <c r="EJ49" s="9"/>
+      <c r="EK49" s="9"/>
+      <c r="EL49" s="9"/>
+      <c r="EM49" s="9"/>
+      <c r="EN49" s="9"/>
+      <c r="EO49" s="9"/>
+      <c r="EP49" s="9"/>
+      <c r="EQ49" s="9"/>
+      <c r="ER49" s="9"/>
+      <c r="ES49" s="9"/>
+      <c r="ET49" s="9"/>
+      <c r="EU49" s="9"/>
+      <c r="EV49" s="9"/>
+      <c r="EW49" s="9"/>
+      <c r="EX49" s="9"/>
+      <c r="EY49" s="9"/>
+      <c r="EZ49" s="9"/>
     </row>
     <row r="50" spans="2:156" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="10" t="e">
-        <f t="shared" ref="C50:H50" si="17">+C23/C21</f>
+        <f t="shared" ref="C50:H50" si="25">+C23/C21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.43283582089552236</v>
       </c>
       <c r="F50" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="G50" s="10">
+        <f t="shared" si="25"/>
+        <v>0.52090106827682303</v>
       </c>
       <c r="H50" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I50" s="10">
@@ -8698,10 +8991,22 @@
         <f>+J23/J21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="K50" s="10">
+        <f t="shared" ref="K50:N50" si="26">+K23/K21</f>
+        <v>0.53996770286637064</v>
+      </c>
+      <c r="L50" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="10" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
@@ -8850,27 +9155,27 @@
         <v>66</v>
       </c>
       <c r="C51" s="10" t="e">
-        <f t="shared" ref="C51:H51" si="18">+C28/C22</f>
+        <f t="shared" ref="C51:H51" si="27">+C28/C22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>0.29521531100478471</v>
       </c>
       <c r="F51" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="10" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="G51" s="10">
+        <f t="shared" si="27"/>
+        <v>0.19922443044110519</v>
       </c>
       <c r="H51" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I51" s="10">
@@ -8881,10 +9186,22 @@
         <f>+J28/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
+      <c r="K51" s="10">
+        <f t="shared" ref="K51:N51" si="28">+K28/K22</f>
+        <v>0.20359806932865293</v>
+      </c>
+      <c r="L51" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="10" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
@@ -9033,27 +9350,27 @@
         <v>67</v>
       </c>
       <c r="C52" s="10" t="e">
-        <f t="shared" ref="C52:H52" si="19">+C32/C31</f>
+        <f t="shared" ref="C52:H52" si="29">+C32/C31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.18604651162790697</v>
       </c>
       <c r="F52" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="G52" s="10">
+        <f t="shared" si="29"/>
+        <v>0.27486910994764396</v>
       </c>
       <c r="H52" s="10" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I52" s="10">
@@ -9064,10 +9381,22 @@
         <f>+J32/J31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
+      <c r="K52" s="10">
+        <f t="shared" ref="K52:N52" si="30">+K32/K31</f>
+        <v>0.24373576309794989</v>
+      </c>
+      <c r="L52" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>

--- a/LPP.WA.xlsx
+++ b/LPP.WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9523434E-1306-480F-951A-2CE364B0DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4843509E-1DCC-4C0B-B826-45F8A884AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{F74C0010-9603-4817-B774-EB89375B349A}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F74C0010-9603-4817-B774-EB89375B349A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -259,16 +259,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -338,29 +345,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -699,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464D9178-5323-4DE4-ABD0-DD8AC1EB1A7B}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -722,18 +734,18 @@
         <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>17935</v>
+        <v>17550</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>1.8551899999999999</v>
+      <c r="I3" s="5">
+        <v>1.85589</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>68</v>
+      <c r="J3" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -745,7 +757,7 @@
       </c>
       <c r="I4" s="5">
         <f>+I2*I3</f>
-        <v>33272.832649999997</v>
+        <v>32570.869500000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -756,11 +768,11 @@
         <v>4</v>
       </c>
       <c r="I5" s="5">
-        <f>651+992</f>
-        <v>1643</v>
+        <f>870+611+96</f>
+        <v>1577</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>68</v>
+      <c r="J5" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -768,11 +780,11 @@
         <v>5</v>
       </c>
       <c r="I6" s="5">
-        <f>170+1872</f>
-        <v>2042</v>
+        <f>158+2104</f>
+        <v>2262</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>68</v>
+      <c r="J6" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -781,7 +793,7 @@
       </c>
       <c r="I7" s="5">
         <f>+I4-I5+I6</f>
-        <v>33671.832649999997</v>
+        <v>33255.869500000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -814,11 +826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65734936-2AF3-4E4A-842F-2654C9E420E4}">
   <dimension ref="A1:EZ268"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,71 +887,73 @@
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14">
         <v>1230</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14">
         <v>1611</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
+      <c r="L3" s="14">
+        <v>1812</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
       <c r="BL3" s="5"/>
       <c r="BM3" s="5"/>
       <c r="BN3" s="5"/>
@@ -1038,71 +1052,73 @@
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
         <v>365</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
         <v>354</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
+      <c r="L4" s="14">
+        <v>350</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14"/>
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BI4" s="14"/>
+      <c r="BJ4" s="14"/>
+      <c r="BK4" s="14"/>
       <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
@@ -1201,71 +1217,73 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14">
         <v>374</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
         <v>384</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
+      <c r="L5" s="14">
+        <v>395</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="14"/>
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="14"/>
+      <c r="BK5" s="14"/>
       <c r="BL5" s="5"/>
       <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
@@ -1364,71 +1382,73 @@
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <v>371</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
         <v>381</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
+      <c r="L6" s="14">
+        <v>399</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14"/>
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="14"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="14"/>
+      <c r="BK6" s="14"/>
       <c r="BL6" s="5"/>
       <c r="BM6" s="5"/>
       <c r="BN6" s="5"/>
@@ -1527,71 +1547,73 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14">
         <v>234</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
         <v>229</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
+      <c r="L7" s="14">
+        <v>239</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="14"/>
+      <c r="BB7" s="14"/>
+      <c r="BC7" s="14"/>
+      <c r="BD7" s="14"/>
+      <c r="BE7" s="14"/>
+      <c r="BF7" s="14"/>
+      <c r="BG7" s="14"/>
+      <c r="BH7" s="14"/>
+      <c r="BI7" s="14"/>
+      <c r="BJ7" s="14"/>
+      <c r="BK7" s="14"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="5"/>
@@ -1690,76 +1712,79 @@
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15">
         <f>+SUM(I3:I7)</f>
         <v>2574</v>
       </c>
-      <c r="J8" s="9">
-        <f t="shared" ref="J8:K8" si="0">+SUM(J3:J7)</f>
+      <c r="J8" s="15">
+        <f t="shared" ref="J8:L8" si="0">+SUM(J3:J7)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>2959</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
+      <c r="L8" s="15">
+        <f t="shared" si="0"/>
+        <v>3195</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
       <c r="BN8" s="5"/>
@@ -1855,67 +1880,67 @@
       <c r="EZ8" s="5"/>
     </row>
     <row r="9" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="5"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14"/>
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14"/>
+      <c r="BK9" s="14"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
@@ -2014,75 +2039,79 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
         <v>1880</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>2103</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="H10" s="14">
+        <v>2269</v>
+      </c>
+      <c r="I10" s="14">
         <v>2695</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
         <v>2751</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="5"/>
+      <c r="L10" s="14">
+        <v>2942</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
       <c r="BN10" s="5"/>
@@ -2181,75 +2210,79 @@
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
         <v>1275</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>1138</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
+      <c r="H11" s="14">
+        <v>1412</v>
+      </c>
+      <c r="I11" s="14">
         <v>1406</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
         <v>1388</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
+      <c r="L11" s="14">
+        <v>1604</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="14"/>
+      <c r="BB11" s="14"/>
+      <c r="BC11" s="14"/>
+      <c r="BD11" s="14"/>
+      <c r="BE11" s="14"/>
+      <c r="BF11" s="14"/>
+      <c r="BG11" s="14"/>
+      <c r="BH11" s="14"/>
+      <c r="BI11" s="14"/>
+      <c r="BJ11" s="14"/>
+      <c r="BK11" s="14"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
@@ -2348,75 +2381,79 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
         <v>310</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14">
         <v>254</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
+      <c r="H12" s="14">
+        <v>345</v>
+      </c>
+      <c r="I12" s="14">
         <v>303</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
         <v>237</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
+      <c r="L12" s="14">
+        <v>300</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="14"/>
+      <c r="BI12" s="14"/>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
       <c r="BL12" s="5"/>
       <c r="BM12" s="5"/>
       <c r="BN12" s="5"/>
@@ -2515,75 +2552,79 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
         <v>288</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
         <v>249</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="H13" s="14">
+        <v>337</v>
+      </c>
+      <c r="I13" s="14">
         <v>315</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
         <v>254</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-      <c r="AV13" s="5"/>
-      <c r="AW13" s="5"/>
-      <c r="AX13" s="5"/>
-      <c r="AY13" s="5"/>
-      <c r="AZ13" s="5"/>
-      <c r="BA13" s="5"/>
-      <c r="BB13" s="5"/>
-      <c r="BC13" s="5"/>
-      <c r="BD13" s="5"/>
-      <c r="BE13" s="5"/>
-      <c r="BF13" s="5"/>
-      <c r="BG13" s="5"/>
-      <c r="BH13" s="5"/>
-      <c r="BI13" s="5"/>
-      <c r="BJ13" s="5"/>
-      <c r="BK13" s="5"/>
+      <c r="L13" s="14">
+        <v>335</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="14"/>
+      <c r="BI13" s="14"/>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
       <c r="BN13" s="5"/>
@@ -2682,75 +2723,79 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
         <v>320</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
         <v>316</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="H14" s="14">
+        <v>339</v>
+      </c>
+      <c r="I14" s="14">
         <v>311</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
         <v>299</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
+      <c r="L14" s="14">
+        <v>341</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="5"/>
@@ -2849,75 +2894,79 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
         <v>69</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>15</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="H15" s="14">
+        <v>31</v>
+      </c>
+      <c r="I15" s="14">
         <v>20</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
         <v>29</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="5"/>
+      <c r="L15" s="14">
+        <v>33</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15" s="14"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
+      <c r="AZ15" s="14"/>
+      <c r="BA15" s="14"/>
+      <c r="BB15" s="14"/>
+      <c r="BC15" s="14"/>
+      <c r="BD15" s="14"/>
+      <c r="BE15" s="14"/>
+      <c r="BF15" s="14"/>
+      <c r="BG15" s="14"/>
+      <c r="BH15" s="14"/>
+      <c r="BI15" s="14"/>
+      <c r="BJ15" s="14"/>
+      <c r="BK15" s="14"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="5"/>
@@ -3016,75 +3065,79 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <v>208</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <v>232</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
+      <c r="H16" s="14">
+        <v>274</v>
+      </c>
+      <c r="I16" s="14">
         <v>162</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
         <v>0</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
-      <c r="BB16" s="5"/>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
-      <c r="BI16" s="5"/>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="5"/>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16" s="14"/>
+      <c r="AX16" s="14"/>
+      <c r="AY16" s="14"/>
+      <c r="AZ16" s="14"/>
+      <c r="BA16" s="14"/>
+      <c r="BB16" s="14"/>
+      <c r="BC16" s="14"/>
+      <c r="BD16" s="14"/>
+      <c r="BE16" s="14"/>
+      <c r="BF16" s="14"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" s="14"/>
+      <c r="BI16" s="14"/>
+      <c r="BJ16" s="14"/>
+      <c r="BK16" s="14"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
@@ -3183,75 +3236,79 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
         <v>1027</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>1157</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5">
+      <c r="H17" s="14">
+        <v>1208</v>
+      </c>
+      <c r="I17" s="14">
         <v>1394</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
         <v>1448</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
-      <c r="AZ17" s="5"/>
-      <c r="BA17" s="5"/>
-      <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
-      <c r="BD17" s="5"/>
-      <c r="BE17" s="5"/>
-      <c r="BF17" s="5"/>
-      <c r="BG17" s="5"/>
-      <c r="BH17" s="5"/>
-      <c r="BI17" s="5"/>
-      <c r="BJ17" s="5"/>
-      <c r="BK17" s="5"/>
+      <c r="L17" s="14">
+        <v>1383</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17" s="14"/>
+      <c r="AX17" s="14"/>
+      <c r="AY17" s="14"/>
+      <c r="AZ17" s="14"/>
+      <c r="BA17" s="14"/>
+      <c r="BB17" s="14"/>
+      <c r="BC17" s="14"/>
+      <c r="BD17" s="14"/>
+      <c r="BE17" s="14"/>
+      <c r="BF17" s="14"/>
+      <c r="BG17" s="14"/>
+      <c r="BH17" s="14"/>
+      <c r="BI17" s="14"/>
+      <c r="BJ17" s="14"/>
+      <c r="BK17" s="14"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="5"/>
@@ -3350,75 +3407,79 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
         <v>1866</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14">
         <v>1891</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5">
+      <c r="H18" s="14">
+        <v>2199</v>
+      </c>
+      <c r="I18" s="14">
         <v>2208</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
         <v>2224</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
-      <c r="BJ18" s="5"/>
-      <c r="BK18" s="5"/>
+      <c r="L18" s="14">
+        <v>2433</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="14"/>
+      <c r="BI18" s="14"/>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="5"/>
@@ -3517,75 +3578,79 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
         <v>2276</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
         <v>2184</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5">
+      <c r="H19" s="14">
+        <v>2532</v>
+      </c>
+      <c r="I19" s="14">
         <v>2843</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
         <v>2729</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
-      <c r="AZ19" s="5"/>
-      <c r="BA19" s="5"/>
-      <c r="BB19" s="5"/>
-      <c r="BC19" s="5"/>
-      <c r="BD19" s="5"/>
-      <c r="BE19" s="5"/>
-      <c r="BF19" s="5"/>
-      <c r="BG19" s="5"/>
-      <c r="BH19" s="5"/>
-      <c r="BI19" s="5"/>
-      <c r="BJ19" s="5"/>
-      <c r="BK19" s="5"/>
+      <c r="L19" s="14">
+        <v>3121</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
       <c r="BL19" s="5"/>
       <c r="BM19" s="5"/>
       <c r="BN19" s="5"/>
@@ -3684,75 +3749,79 @@
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
         <v>208</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14">
         <v>232</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5">
+      <c r="H20" s="14">
+        <v>274</v>
+      </c>
+      <c r="I20" s="14">
         <v>162</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
         <v>0</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="5"/>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="5"/>
@@ -3851,75 +3920,79 @@
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15">
         <v>3685</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <v>4306</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
+      <c r="H21" s="15">
+        <v>5005</v>
+      </c>
+      <c r="I21" s="15">
         <v>4349</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
         <v>4954</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="5"/>
+      <c r="L21" s="15">
+        <v>5554</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21" s="14"/>
+      <c r="BA21" s="14"/>
+      <c r="BB21" s="14"/>
+      <c r="BC21" s="14"/>
+      <c r="BD21" s="14"/>
+      <c r="BE21" s="14"/>
+      <c r="BF21" s="14"/>
+      <c r="BG21" s="14"/>
+      <c r="BH21" s="14"/>
+      <c r="BI21" s="14"/>
+      <c r="BJ21" s="14"/>
+      <c r="BK21" s="14"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="5"/>
@@ -4018,75 +4091,79 @@
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14">
         <v>2090</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
         <v>2063</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="H22" s="14">
+        <v>2376</v>
+      </c>
+      <c r="I22" s="14">
         <v>2529</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14">
         <v>2279</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="5"/>
+      <c r="L22" s="14">
+        <v>2554</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="14"/>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14"/>
+      <c r="BC22" s="14"/>
+      <c r="BD22" s="14"/>
+      <c r="BE22" s="14"/>
+      <c r="BF22" s="14"/>
+      <c r="BG22" s="14"/>
+      <c r="BH22" s="14"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="14"/>
+      <c r="BK22" s="14"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
@@ -4185,94 +4262,97 @@
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="14">
         <f t="shared" ref="C23:H23" si="1">+C21-C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="14">
         <f t="shared" si="1"/>
         <v>1595</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
         <v>2243</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2629</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="14">
         <f>+I21-I22</f>
         <v>1820</v>
       </c>
-      <c r="J23" s="5">
-        <f t="shared" ref="J23:K23" si="2">+J21-J22</f>
+      <c r="J23" s="14">
+        <f t="shared" ref="J23:L23" si="2">+J21-J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="14">
         <f t="shared" si="2"/>
         <v>2675</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="5"/>
+      <c r="L23" s="14">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="14"/>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14"/>
+      <c r="BC23" s="14"/>
+      <c r="BD23" s="14"/>
+      <c r="BE23" s="14"/>
+      <c r="BF23" s="14"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" s="14"/>
+      <c r="BI23" s="14"/>
+      <c r="BJ23" s="14"/>
+      <c r="BK23" s="14"/>
       <c r="BL23" s="5"/>
       <c r="BM23" s="5"/>
       <c r="BN23" s="5"/>
@@ -4371,75 +4451,79 @@
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
         <v>797</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
         <v>1523</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="H24" s="14">
+        <v>1799</v>
+      </c>
+      <c r="I24" s="14">
         <v>1102</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14">
         <v>1879</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="5"/>
+      <c r="L24" s="14">
+        <v>1975</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="14"/>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14"/>
+      <c r="BC24" s="14"/>
+      <c r="BD24" s="14"/>
+      <c r="BE24" s="14"/>
+      <c r="BF24" s="14"/>
+      <c r="BG24" s="14"/>
+      <c r="BH24" s="14"/>
+      <c r="BI24" s="14"/>
+      <c r="BJ24" s="14"/>
+      <c r="BK24" s="14"/>
       <c r="BL24" s="5"/>
       <c r="BM24" s="5"/>
       <c r="BN24" s="5"/>
@@ -4538,75 +4622,79 @@
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14">
         <v>170</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <v>300</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
+      <c r="H25" s="14">
+        <v>210</v>
+      </c>
+      <c r="I25" s="14">
         <v>211</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14">
         <v>300</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
+      <c r="L25" s="14">
+        <v>255</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="14"/>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14"/>
+      <c r="BC25" s="14"/>
+      <c r="BD25" s="14"/>
+      <c r="BE25" s="14"/>
+      <c r="BF25" s="14"/>
+      <c r="BG25" s="14"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="14"/>
+      <c r="BK25" s="14"/>
       <c r="BL25" s="5"/>
       <c r="BM25" s="5"/>
       <c r="BN25" s="5"/>
@@ -4705,75 +4793,79 @@
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14">
         <v>6</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>22</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="H26" s="14">
+        <v>19</v>
+      </c>
+      <c r="I26" s="14">
         <v>-3</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14">
         <v>15</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="5"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
+      <c r="L26" s="14">
+        <v>355</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+      <c r="BB26" s="14"/>
+      <c r="BC26" s="14"/>
+      <c r="BD26" s="14"/>
+      <c r="BE26" s="14"/>
+      <c r="BF26" s="14"/>
+      <c r="BG26" s="14"/>
+      <c r="BH26" s="14"/>
+      <c r="BI26" s="14"/>
+      <c r="BJ26" s="14"/>
+      <c r="BK26" s="14"/>
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="5"/>
@@ -4872,75 +4964,79 @@
       <c r="B27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14">
         <v>17</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>31</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5">
+      <c r="H27" s="14">
+        <v>28</v>
+      </c>
+      <c r="I27" s="14">
         <v>13</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14">
         <v>47</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
+      <c r="L27" s="14">
+        <v>436</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14"/>
+      <c r="BB27" s="14"/>
+      <c r="BC27" s="14"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="14"/>
+      <c r="BG27" s="14"/>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="14"/>
+      <c r="BK27" s="14"/>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="5"/>
@@ -5039,94 +5135,97 @@
       <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="14">
         <f t="shared" ref="C28:H28" si="3">+C23-SUM(C24:C25)+C26-C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="14">
         <f t="shared" si="3"/>
         <v>617</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="14">
         <f t="shared" si="3"/>
         <v>411</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>611</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="14">
         <f>+I23-SUM(I24:I25)+I26-I27</f>
         <v>491</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" ref="J28:K28" si="4">+J23-SUM(J24:J25)+J26-J27</f>
+      <c r="J28" s="14">
+        <f t="shared" ref="J28:L28" si="4">+J23-SUM(J24:J25)+J26-J27</f>
         <v>0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="14">
         <f t="shared" si="4"/>
         <v>464</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
+      <c r="L28" s="14">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
       <c r="BL28" s="5"/>
       <c r="BM28" s="5"/>
       <c r="BN28" s="5"/>
@@ -5225,75 +5324,79 @@
       <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14">
         <v>51</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <v>33</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
+      <c r="H29" s="14">
+        <v>36</v>
+      </c>
+      <c r="I29" s="14">
         <v>46</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14">
         <v>57</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="5"/>
+      <c r="L29" s="14">
+        <v>-38</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="14"/>
+      <c r="BB29" s="14"/>
+      <c r="BC29" s="14"/>
+      <c r="BD29" s="14"/>
+      <c r="BE29" s="14"/>
+      <c r="BF29" s="14"/>
+      <c r="BG29" s="14"/>
+      <c r="BH29" s="14"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="14"/>
       <c r="BL29" s="5"/>
       <c r="BM29" s="5"/>
       <c r="BN29" s="5"/>
@@ -5392,75 +5495,79 @@
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
         <v>66</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>62</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5">
+      <c r="H30" s="14">
+        <v>97</v>
+      </c>
+      <c r="I30" s="14">
         <v>1</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14">
         <v>82</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="5"/>
-      <c r="BE30" s="5"/>
-      <c r="BF30" s="5"/>
-      <c r="BG30" s="5"/>
-      <c r="BH30" s="5"/>
-      <c r="BI30" s="5"/>
-      <c r="BJ30" s="5"/>
-      <c r="BK30" s="5"/>
+      <c r="L30" s="14">
+        <v>137</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+      <c r="BB30" s="14"/>
+      <c r="BC30" s="14"/>
+      <c r="BD30" s="14"/>
+      <c r="BE30" s="14"/>
+      <c r="BF30" s="14"/>
+      <c r="BG30" s="14"/>
+      <c r="BH30" s="14"/>
+      <c r="BI30" s="14"/>
+      <c r="BJ30" s="14"/>
+      <c r="BK30" s="14"/>
       <c r="BL30" s="5"/>
       <c r="BM30" s="5"/>
       <c r="BN30" s="5"/>
@@ -5559,94 +5666,97 @@
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="14">
         <f t="shared" ref="C31:H31" si="5">+C28+C29-C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="14">
         <f t="shared" si="5"/>
         <v>602</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="14">
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>550</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="14">
         <f>+I28+I29-I30</f>
         <v>536</v>
       </c>
-      <c r="J31" s="5">
-        <f t="shared" ref="J31:K31" si="6">+J28+J29-J30</f>
+      <c r="J31" s="14">
+        <f t="shared" ref="J31:L31" si="6">+J28+J29-J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="14">
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
+      <c r="L31" s="14">
+        <f t="shared" si="6"/>
+        <v>514</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="14"/>
+      <c r="BG31" s="14"/>
+      <c r="BH31" s="14"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="14"/>
+      <c r="BK31" s="14"/>
       <c r="BL31" s="5"/>
       <c r="BM31" s="5"/>
       <c r="BN31" s="5"/>
@@ -5745,75 +5855,79 @@
       <c r="B32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
         <v>112</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
         <v>105</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5">
+      <c r="H32" s="14">
+        <v>107</v>
+      </c>
+      <c r="I32" s="14">
         <v>104</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14">
         <v>107</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="5"/>
+      <c r="L32" s="14">
+        <v>47</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="14"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
       <c r="BL32" s="5"/>
       <c r="BM32" s="5"/>
       <c r="BN32" s="5"/>
@@ -5912,94 +6026,97 @@
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="14">
         <f t="shared" ref="C33:H33" si="7">+C31-C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="14">
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="14">
         <f t="shared" si="7"/>
         <v>277</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>443</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="14">
         <f>+I31-I32</f>
         <v>432</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" ref="J33:K33" si="8">+J31-J32</f>
+      <c r="J33" s="14">
+        <f t="shared" ref="J33:L33" si="8">+J31-J32</f>
         <v>0</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="14">
         <f t="shared" si="8"/>
         <v>332</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-      <c r="BK33" s="5"/>
+      <c r="L33" s="14">
+        <f t="shared" si="8"/>
+        <v>467</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="5"/>
@@ -6095,67 +6212,67 @@
       <c r="EZ33" s="5"/>
     </row>
     <row r="34" spans="2:156" x14ac:dyDescent="0.2">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-      <c r="BK34" s="5"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="14"/>
+      <c r="BD34" s="14"/>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14"/>
+      <c r="BG34" s="14"/>
+      <c r="BH34" s="14"/>
+      <c r="BI34" s="14"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
       <c r="BL34" s="5"/>
       <c r="BM34" s="5"/>
       <c r="BN34" s="5"/>
@@ -6274,25 +6391,34 @@
         <f t="shared" si="9"/>
         <v>149.30199967660218</v>
       </c>
-      <c r="H35" s="3" t="e">
+      <c r="H35" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.23876832196533818</v>
       </c>
       <c r="I35" s="3">
         <f>+I33/I36</f>
         <v>232.84643992885248</v>
       </c>
       <c r="J35" s="3" t="e">
-        <f t="shared" ref="J35:K35" si="10">+J33/J36</f>
+        <f t="shared" ref="J35:N35" si="10">+J33/J36</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" si="10"/>
         <v>178.95741137026397</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="L35" s="3">
+        <f t="shared" si="10"/>
+        <v>251.63129280291395</v>
+      </c>
+      <c r="M35" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -6449,7 +6575,9 @@
       <c r="G36" s="5">
         <v>1.8552999999999999</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5">
+        <v>1855.355</v>
+      </c>
       <c r="I36" s="5">
         <v>1.8552999999999999</v>
       </c>
@@ -6457,7 +6585,9 @@
       <c r="K36" s="5">
         <v>1.8551899999999999</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5">
+        <v>1.85589</v>
+      </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -6970,9 +7100,9 @@
         <f t="shared" ref="K39:N45" si="14">+K10/G10-1</f>
         <v>0.30813124108416545</v>
       </c>
-      <c r="L39" s="10" t="e">
+      <c r="L39" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.29660643455266644</v>
       </c>
       <c r="M39" s="10">
         <f t="shared" si="14"/>
@@ -7153,9 +7283,9 @@
         <f t="shared" si="14"/>
         <v>0.2196836555360282</v>
       </c>
-      <c r="L40" s="10" t="e">
+      <c r="L40" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.13597733711048154</v>
       </c>
       <c r="M40" s="10">
         <f t="shared" si="14"/>
@@ -7336,9 +7466,9 @@
         <f t="shared" si="14"/>
         <v>-6.6929133858267709E-2</v>
       </c>
-      <c r="L41" s="10" t="e">
+      <c r="L41" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-0.13043478260869568</v>
       </c>
       <c r="M41" s="10">
         <f t="shared" si="14"/>
@@ -7519,9 +7649,9 @@
         <f t="shared" si="14"/>
         <v>2.008032128514059E-2</v>
       </c>
-      <c r="L42" s="10" t="e">
+      <c r="L42" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-5.9347181008901906E-3</v>
       </c>
       <c r="M42" s="10">
         <f t="shared" si="14"/>
@@ -7702,9 +7832,9 @@
         <f t="shared" si="14"/>
         <v>-5.3797468354430333E-2</v>
       </c>
-      <c r="L43" s="10" t="e">
+      <c r="L43" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>5.8997050147493457E-3</v>
       </c>
       <c r="M43" s="10">
         <f t="shared" si="14"/>
@@ -7885,9 +8015,9 @@
         <f t="shared" si="14"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="L44" s="10" t="e">
+      <c r="L44" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>6.4516129032258007E-2</v>
       </c>
       <c r="M44" s="10">
         <f t="shared" si="14"/>
@@ -8068,9 +8198,9 @@
         <f t="shared" si="14"/>
         <v>-1</v>
       </c>
-      <c r="L45" s="10" t="e">
+      <c r="L45" s="10">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
       <c r="M45" s="10">
         <f t="shared" si="14"/>
@@ -8251,9 +8381,9 @@
         <f t="shared" ref="K46:N48" si="17">+K17/G17-1</f>
         <v>0.25151253241140892</v>
       </c>
-      <c r="L46" s="10" t="e">
+      <c r="L46" s="10">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.14486754966887427</v>
       </c>
       <c r="M46" s="10">
         <f t="shared" si="17"/>
@@ -8434,9 +8564,9 @@
         <f t="shared" si="17"/>
         <v>0.17609730301427806</v>
       </c>
-      <c r="L47" s="10" t="e">
+      <c r="L47" s="10">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.10641200545702589</v>
       </c>
       <c r="M47" s="10">
         <f t="shared" si="17"/>
@@ -8617,9 +8747,9 @@
         <f t="shared" si="17"/>
         <v>0.24954212454212454</v>
       </c>
-      <c r="L48" s="10" t="e">
+      <c r="L48" s="10">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>0.23262243285939976</v>
       </c>
       <c r="M48" s="10">
         <f t="shared" si="17"/>
@@ -8800,9 +8930,9 @@
         <f t="shared" ref="K49" si="21">+K21/G21-1</f>
         <v>0.15048769159312592</v>
       </c>
-      <c r="L49" s="12" t="e">
+      <c r="L49" s="12">
         <f t="shared" ref="L49" si="22">+L21/H21-1</f>
-        <v>#DIV/0!</v>
+        <v>0.10969030969030968</v>
       </c>
       <c r="M49" s="12">
         <f t="shared" ref="M49" si="23">+M21/I21-1</f>
@@ -8979,9 +9109,9 @@
         <f t="shared" si="25"/>
         <v>0.52090106827682303</v>
       </c>
-      <c r="H50" s="10" t="e">
+      <c r="H50" s="10">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0.5252747252747253</v>
       </c>
       <c r="I50" s="10">
         <f>+I23/I21</f>
@@ -8995,9 +9125,9 @@
         <f t="shared" ref="K50:N50" si="26">+K23/K21</f>
         <v>0.53996770286637064</v>
       </c>
-      <c r="L50" s="10" t="e">
+      <c r="L50" s="10">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>0.54015124234785739</v>
       </c>
       <c r="M50" s="10" t="e">
         <f t="shared" si="26"/>
@@ -9174,9 +9304,9 @@
         <f t="shared" si="27"/>
         <v>0.19922443044110519</v>
       </c>
-      <c r="H51" s="10" t="e">
+      <c r="H51" s="10">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>0.25715488215488214</v>
       </c>
       <c r="I51" s="10">
         <f>+I28/I22</f>
@@ -9190,9 +9320,9 @@
         <f t="shared" ref="K51:N51" si="28">+K28/K22</f>
         <v>0.20359806932865293</v>
       </c>
-      <c r="L51" s="10" t="e">
+      <c r="L51" s="10">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>0.26977290524667191</v>
       </c>
       <c r="M51" s="10" t="e">
         <f t="shared" si="28"/>
@@ -9369,9 +9499,9 @@
         <f t="shared" si="29"/>
         <v>0.27486910994764396</v>
       </c>
-      <c r="H52" s="10" t="e">
+      <c r="H52" s="10">
         <f t="shared" si="29"/>
-        <v>#DIV/0!</v>
+        <v>0.19454545454545455</v>
       </c>
       <c r="I52" s="10">
         <f>+I32/I31</f>
@@ -9385,9 +9515,9 @@
         <f t="shared" ref="K52:N52" si="30">+K32/K31</f>
         <v>0.24373576309794989</v>
       </c>
-      <c r="L52" s="10" t="e">
+      <c r="L52" s="10">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>9.1439688715953302E-2</v>
       </c>
       <c r="M52" s="10" t="e">
         <f t="shared" si="30"/>
